--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_17-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_17-57.xlsx
@@ -92,6 +92,12 @@
     <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -266,16 +272,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطن 250 جم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قطن 250 جم </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كير اند مور لليدين امبوبه</t>
@@ -1224,11 +1233,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>25.5</v>
+        <v>10</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1236,7 +1245,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1244,17 +1253,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>99</v>
+        <v>25.5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1270,17 +1279,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1296,17 +1305,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1328,11 +1337,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1348,17 +1357,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1366,7 +1375,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1374,17 +1383,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1392,7 +1401,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1400,17 +1409,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1418,7 +1427,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1426,17 +1435,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1452,13 +1461,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1470,7 +1479,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1478,13 +1487,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1496,7 +1505,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1504,13 +1513,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1522,7 +1531,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1530,13 +1539,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1556,17 +1565,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1574,7 +1583,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1582,13 +1591,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>55.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1600,7 +1609,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1608,17 +1617,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>74</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1626,7 +1635,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1634,13 +1643,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1652,7 +1661,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1660,13 +1669,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>79.200000000000003</v>
+        <v>92</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1678,7 +1687,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1692,7 +1701,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>90</v>
+        <v>79.200000000000003</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1704,7 +1713,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1712,13 +1721,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1730,7 +1739,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1744,7 +1753,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1756,7 +1765,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1764,13 +1773,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1782,7 +1791,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1796,7 +1805,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1808,7 +1817,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1816,17 +1825,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1842,17 +1851,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1860,7 +1869,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1868,17 +1877,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1886,7 +1895,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1894,17 +1903,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1926,11 +1935,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1952,11 +1961,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1972,13 +1981,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1990,7 +1999,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1998,13 +2007,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2016,7 +2025,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2024,17 +2033,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2042,7 +2051,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2050,17 +2059,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2068,7 +2077,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2076,13 +2085,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2094,7 +2103,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2102,17 +2111,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2134,11 +2143,11 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2154,17 +2163,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>63</v>
+        <v>22.5</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2172,7 +2181,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2180,13 +2189,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2198,7 +2207,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2206,17 +2215,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2224,7 +2233,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2232,17 +2241,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2264,11 +2273,11 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2276,7 +2285,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2284,17 +2293,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2302,7 +2311,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2310,13 +2319,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2328,7 +2337,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2336,13 +2345,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2354,7 +2363,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2362,13 +2371,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2380,7 +2389,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2388,13 +2397,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2402,37 +2411,63 @@
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
-      <c r="K63" s="10">
-        <v>3660.6500000000001</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" ht="17.25" customHeight="1">
-      <c t="s" r="A64" s="11">
-        <v>93</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c t="s" r="F64" s="12">
-        <v>94</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-      <c t="s" r="I64" s="14">
+      <c r="A63" s="6">
+        <v>60</v>
+      </c>
+      <c t="s" r="B63" s="7">
         <v>95</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c t="s" r="H63" s="8">
+        <v>9</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9">
+        <v>20</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c t="s" r="N63" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="K64" s="10">
+        <v>3676.6500000000001</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="11">
+        <v>96</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c t="s" r="F65" s="12">
+        <v>97</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
+      <c t="s" r="I65" s="14">
+        <v>98</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="188">
+  <mergeCells count="191">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2617,10 +2652,13 @@
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="I65:N65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
